--- a/contents_manager.xlsx
+++ b/contents_manager.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\compneuro-julia-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\Github\compneuro-julia-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70FAAEC-4054-42C3-BCCF-96584944E866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413E3139-50B5-4841-875E-29D02CB891C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13185" yWindow="2085" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/contents_manager.xlsx
+++ b/contents_manager.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\Github\compneuro-julia-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\compneuro-julia-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413E3139-50B5-4841-875E-29D02CB891C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3555C5-3A2A-45F4-AC10-30DD3AFD5B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13185" yWindow="2085" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14220" yWindow="0" windowWidth="17445" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,145 +25,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
-  <si>
-    <t>chapter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>section</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>neuron-model</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
   <si>
     <t>introduction</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>notation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記号の表記法．Num等統一が必要．</t>
-    <rPh sb="0" eb="2">
-      <t>キゴウ</t>
+    <t>ch_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chapter_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本書の目的と構成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>section_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chapter_name_jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はじめに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>section_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>md</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Julia言語の使用法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ipynb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎的数学とJuliaでの記法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習と予測の基礎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>local-learning-rule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発火率モデルと局所学習則</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神経細胞の概要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神経細胞の発火率モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hebb則とシナプス可塑性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーセプトロンの学習</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主成分分析</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独立成分分析</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低速特徴分析</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競合学習と側方抑制</t>
+    <rPh sb="0" eb="4">
+      <t>キョウゴウガクシュウ</t>
     </rPh>
-    <rPh sb="3" eb="6">
-      <t>ヒョウキホウ</t>
+    <rPh sb="5" eb="9">
+      <t>ソクホウヨクセイ</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>トウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己組織化マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>energy-based-model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネルギーベースモデル</t>
+  </si>
+  <si>
+    <t>Hopfield モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Boltzmann マシン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパース符号化モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネルギーベースモデルの基礎</t>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウイツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予測符号化モデル</t>
+    <rPh sb="0" eb="5">
+      <t>ヨソクフゴウカ</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>computational-neuroscience</t>
-  </si>
-  <si>
-    <t>usage-julia-lang</t>
-  </si>
-  <si>
-    <t>setup</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>juliaのsetup方法</t>
-    <rPh sb="11" eb="13">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算論的神経科学の意義</t>
-    <rPh sb="0" eb="8">
-      <t>ケイサンロンテキシンケイカガク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>julia言語の使用法</t>
-    <rPh sb="5" eb="7">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ToDo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>linear-algebra</t>
-  </si>
-  <si>
-    <t>differential-equation</t>
-  </si>
-  <si>
-    <t>probability-information-theory</t>
-  </si>
-  <si>
-    <t>stochastic-process-differential-equation</t>
-  </si>
-  <si>
-    <t>確率微分方程式</t>
-    <rPh sb="0" eb="7">
-      <t>カクリツビブンホウテイシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確率理論と情報理論</t>
-    <rPh sb="0" eb="4">
-      <t>カクリツリロン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>リロン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>微分方程式</t>
-    <rPh sb="0" eb="5">
-      <t>ビブンホウテイシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>線型代数</t>
-    <rPh sb="0" eb="4">
-      <t>センケイダイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hodgkin-huxley</t>
-  </si>
-  <si>
-    <t>conductance-basedのニューロンモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニューラルネットワークと貢献度分配問題</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>credit-assignment-problem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貢献度分配問題</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニューラルネットワークと誤差逆伝播法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予測符号化による活動と結合の共調整</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非対称な逆向き投射による誤差伝播</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摂動を用いた学習則</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>temporal-credit-assignment-problem</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -499,161 +534,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="38.25" customWidth="1"/>
-    <col min="3" max="3" width="36.875" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="38.25" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="36.875" customWidth="1"/>
+    <col min="8" max="8" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>3</v>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/contents_manager.xlsx
+++ b/contents_manager.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\compneuro-julia-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\compneuro-julia-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3555C5-3A2A-45F4-AC10-30DD3AFD5B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F082BE-9E64-486F-8F19-6A9217CDB337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="0" windowWidth="17445" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="97">
   <si>
     <t>introduction</t>
     <phoneticPr fontId="1"/>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>発火率モデルと局所学習則</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>神経細胞の概要</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -133,10 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>energy-based-model</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -199,6 +191,313 @@
   </si>
   <si>
     <t>temporal-credit-assignment-problem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勾配法に基づく経時的貢献度分配</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経時的誤差逆伝播法 (BPTT)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実時間再帰学習 (RTRL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RTRLとBPTTの生理学的実装の困難点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適格度トレースによるRTRLの近似</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合成勾配学習によるBPTTの近似</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再帰型ニューラルネットワークと経時的貢献度分配問題</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>neuron-synapse-model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパイキングニューラルネットワークの学習則</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spiking-neural-networks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reservoir-computing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザバーコンピューティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bayesian-brain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神経回路網による不確実性の表現とベイズ推論</t>
+    <rPh sb="8" eb="12">
+      <t>フカクジツセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>motor-learning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運動学習と最適制御</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>morphology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reinforcement-learning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化学習</t>
+    <rPh sb="0" eb="4">
+      <t>キョウカガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神経突起の成長モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神経細胞のコンダクタンスモデル</t>
+    <rPh sb="0" eb="4">
+      <t>シンケイサイボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神経細胞とシナプスの生物物理学的モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発火ダイナミクスの縮約モデル</t>
+    <rPh sb="0" eb="2">
+      <t>ハッカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュクヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチコンパートメントモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短期的シナプス可塑性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパイク列と点過程モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摂動を用いた経時的貢献度分配</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神経細胞の基礎的生理</t>
+    <rPh sb="5" eb="8">
+      <t>キソテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナプス伝達のモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲイン調整と神経細胞による四則演算</t>
+    <rPh sb="6" eb="10">
+      <t>シンケイサイボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム回路網の構成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STDP則と競合学習</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代理勾配法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発火イベント (event based), temporal coding等</t>
+    <rPh sb="37" eb="38">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適格性伝播法</t>
+    <rPh sb="0" eb="3">
+      <t>テキカクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンパ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status (0:none, 1:incomplete, 2:complete)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベイズ脳仮説と神経活動による不確実性の表現</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神経サンプリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベイズ線形回帰</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率的集団符号化</t>
+    <rPh sb="0" eb="3">
+      <t>カクリツテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウダン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運動制御と最適制御</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>躍度最小モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終点誤差分散最小モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最適フィードバック制御モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無限時間最適フィードバック制御モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態空間モデルと内部モデル</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウタイクウカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自由行動の現象論的モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化学習とマルコフ決定過程</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態価値の推定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価値ベース法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方策ベース法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分布型強化学習</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内発的動機付け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神経・神経回路の発生学・解剖学的モデル</t>
+    <rPh sb="12" eb="15">
+      <t>カイボウガク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナプス結合強度の不均一性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オフライン学習法</t>
+    <rPh sb="5" eb="7">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン学習法</t>
+    <rPh sb="5" eb="7">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザバーコンピューティングの基礎</t>
+    <rPh sb="14" eb="16">
+      <t>キソ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -534,18 +833,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="3" max="3" width="47.625" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="38.25" customWidth="1"/>
+    <col min="5" max="5" width="43.125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="36.875" customWidth="1"/>
     <col min="8" max="8" width="56" customWidth="1"/>
@@ -571,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -668,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -688,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -708,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -728,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -748,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -768,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -788,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -808,7 +1107,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -828,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -839,16 +1138,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -859,16 +1158,16 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -879,16 +1178,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -899,16 +1198,16 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -919,16 +1218,16 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -939,16 +1238,16 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -959,16 +1258,16 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -979,16 +1278,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -999,16 +1298,16 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1019,16 +1318,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1039,10 +1338,822 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
       </c>
       <c r="D25">
         <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/contents_manager.xlsx
+++ b/contents_manager.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\compneuro-julia-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F082BE-9E64-486F-8F19-6A9217CDB337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC31FB5-1D00-44CD-B6E9-6D176BD4DA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7605" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="98">
   <si>
     <t>introduction</t>
     <phoneticPr fontId="1"/>
@@ -460,16 +460,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>神経・神経回路の発生学・解剖学的モデル</t>
-    <rPh sb="12" eb="15">
-      <t>カイボウガク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シナプス結合強度の不均一性</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -498,6 +488,13 @@
     <rPh sb="14" eb="16">
       <t>キソ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神経系の発生と発達の数理モデル</t>
+  </si>
+  <si>
+    <t>神経系の発生と発達の数理モデル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -835,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1730,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1750,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -1770,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -2124,7 +2121,7 @@
         <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2144,13 +2141,13 @@
         <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
